--- a/Prom_import/Win32/Debug/Export_Header.xlsx
+++ b/Prom_import/Win32/Debug/Export_Header.xlsx
@@ -441,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -685,6 +685,72 @@
       </c>
       <c r="AM2">
         <v>39</v>
+      </c>
+      <c r="AN2">
+        <v>40</v>
+      </c>
+      <c r="AO2">
+        <v>41</v>
+      </c>
+      <c r="AP2">
+        <v>42</v>
+      </c>
+      <c r="AQ2">
+        <v>43</v>
+      </c>
+      <c r="AR2">
+        <v>44</v>
+      </c>
+      <c r="AS2">
+        <v>45</v>
+      </c>
+      <c r="AT2">
+        <v>46</v>
+      </c>
+      <c r="AU2">
+        <v>47</v>
+      </c>
+      <c r="AV2">
+        <v>48</v>
+      </c>
+      <c r="AW2">
+        <v>49</v>
+      </c>
+      <c r="AX2">
+        <v>50</v>
+      </c>
+      <c r="AY2">
+        <v>51</v>
+      </c>
+      <c r="AZ2">
+        <v>52</v>
+      </c>
+      <c r="BA2">
+        <v>53</v>
+      </c>
+      <c r="BB2">
+        <v>54</v>
+      </c>
+      <c r="BC2">
+        <v>55</v>
+      </c>
+      <c r="BD2">
+        <v>56</v>
+      </c>
+      <c r="BE2">
+        <v>57</v>
+      </c>
+      <c r="BF2">
+        <v>58</v>
+      </c>
+      <c r="BG2">
+        <v>59</v>
+      </c>
+      <c r="BH2">
+        <v>60</v>
+      </c>
+      <c r="BI2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
